--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,18 +31,30 @@
     <t>Tickets</t>
   </si>
   <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
     <t>T100</t>
   </si>
   <si>
-    <t>D1500</t>
-  </si>
-  <si>
     <t>Ski School</t>
   </si>
   <si>
     <t>D2000</t>
   </si>
   <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>Rentals</t>
   </si>
   <si>
@@ -91,6 +103,12 @@
     <t xml:space="preserve">D5205                    </t>
   </si>
   <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
     <t>Purgy's</t>
   </si>
   <si>
@@ -101,6 +119,12 @@
   </si>
   <si>
     <t>D5209</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
+  </si>
+  <si>
+    <t>D6720</t>
   </si>
 </sst>
 </file>
@@ -463,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,139 +524,203 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>14328.1000</v>
+        <v>70.5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>4152.0000</v>
+        <v>2842.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>3834.0000</v>
+        <v>61251.9400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>1734.4100</v>
+        <v>16206.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>5022.1100</v>
+        <v>1120.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>1748.3400</v>
+        <v>20054.1000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>866.7600</v>
+        <v>5131.1500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>3084.3500</v>
+        <v>23761.3300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>6404.6300</v>
+        <v>7269.8000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>545.2100</v>
+        <v>5261.0900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>16.3300</v>
+        <v>14431.2100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>33121.9500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>1175.6500</v>
+      <c r="D14" s="2">
+        <v>1747.0800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90.0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>248.0100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5642.4600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>90.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,100 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -487,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -524,21 +475,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>70.5000</v>
+        <v>296103.7700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>2842.0000</v>
+        <v>-224.4900</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -546,181 +495,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>61251.9400</v>
+        <v>65.4500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>16206.0000</v>
+        <v>16910.2400</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1120.0000</v>
+        <v>22376.6000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>20054.1000</v>
+        <v>126707.7200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>5131.1500</v>
+        <v>52904.9100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>23761.3300</v>
+        <v>58194.0700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>7269.8000</v>
+        <v>72085.7700</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>5261.0900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>14431.2100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>33121.9500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1747.0800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>90.0000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>248.0100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5642.4600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>90.0000</v>
+        <v>7316.4500</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,52 +31,100 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T100</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
+  </si>
+  <si>
+    <t>D6720</t>
   </si>
 </sst>
 </file>
@@ -439,15 +487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -475,19 +524,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>296103.7700</v>
+        <v>70.5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>-224.4900</v>
+        <v>2842.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -495,99 +546,181 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>65.4500</v>
+        <v>61251.9400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>16910.2400</v>
+        <v>16206.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>22376.6000</v>
+        <v>1120.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>126707.7200</v>
+        <v>20054.1000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>52904.9100</v>
+        <v>5131.1500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>58194.0700</v>
+        <v>23761.3300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>72085.7700</v>
+        <v>7269.8000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>7316.4500</v>
+        <v>5261.0900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14431.2100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>33121.9500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1747.0800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90.0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>248.0100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5642.4600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>90.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>61251.9400</v>
+        <v>65817.0300</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>16206.0000</v>
+        <v>16942.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -576,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>1120.0000</v>
+        <v>1440.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>20054.1000</v>
+        <v>21968.6000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -600,7 +600,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>5131.1500</v>
+        <v>5335.6500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -612,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>23761.3300</v>
+        <v>27917.0200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -624,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>7269.8000</v>
+        <v>7610.4900</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -636,7 +636,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>5261.0900</v>
+        <v>5784.6500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -648,7 +648,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>14431.2100</v>
+        <v>15401.5600</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -660,7 +660,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>33121.9500</v>
+        <v>33136.6200</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -696,7 +696,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>248.0100</v>
+        <v>3236.3300</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="2">
-        <v>5642.4600</v>
+        <v>6044.6400</v>
       </c>
     </row>
     <row r="18" spans="1:4">

--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,100 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -487,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -517,14 +468,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>70.5000</v>
+        <v>-224.4900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -532,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>2842.0000</v>
+        <v>84.1500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -546,181 +495,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>65817.0300</v>
+        <v>16910.2400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>16942.0000</v>
+        <v>316396.2300</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1440.0000</v>
+        <v>24032.6000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>21968.6000</v>
+        <v>137651.8100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>5335.6500</v>
+        <v>58877.0300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>27917.0200</v>
+        <v>60523.6700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>7610.4900</v>
+        <v>79569.1900</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>5784.6500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15401.5600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>33136.6200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1747.0800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>90.0000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3236.3300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6044.6400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>90.0000</v>
+        <v>7968.8000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,100 +31,52 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -487,16 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -524,21 +475,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>95.5000</v>
+        <v>343256.2100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>2842.0000</v>
+        <v>-224.4900</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -546,181 +495,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>70602.7300</v>
+        <v>102.8500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>18417.0000</v>
+        <v>17605.3100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1760.0000</v>
+        <v>24885.6000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>24663.6000</v>
+        <v>150235.6000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>5561.5500</v>
+        <v>62066.3200</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>30301.3800</v>
+        <v>65877.4600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>8243.6600</v>
+        <v>86374.6200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>6537.9900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>16280.0900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>33136.6200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1747.0800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100.0000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5034.6900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6594.6100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>90.0000</v>
+        <v>8278.7900</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,52 +31,112 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T100</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6780                    </t>
   </si>
 </sst>
 </file>
@@ -439,14 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -475,19 +536,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>343256.2100</v>
+        <v>131.7000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>-224.4900</v>
+        <v>3770.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -495,99 +558,205 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>102.8500</v>
+        <v>130409.0300</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>17605.3100</v>
+        <v>29602.6500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>24885.6000</v>
+        <v>3080.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>150235.6000</v>
+        <v>51209.9500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>62066.3200</v>
+        <v>8474.2100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>65877.4600</v>
+        <v>44007.0900</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>86374.6200</v>
+        <v>11955.1600</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>8278.7900</v>
+        <v>10292.8100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>23589.6800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>33907.8400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2182.4200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>290.0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28376.0700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10014.8800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>800.0000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>180.0000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
+        <v>160.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_Revenue.xlsx
+++ b/reports/Month to Date (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,112 +31,55 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6780                    </t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
   </si>
 </sst>
 </file>
@@ -499,15 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>131.7000</v>
+        <v>219.6200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>3770.0000</v>
+        <v>158.9500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -564,199 +506,93 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>130409.0300</v>
+        <v>24469.9700</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>29602.6500</v>
+        <v>536675.3100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>3080.0000</v>
+        <v>39947.5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>51209.9500</v>
+        <v>225661.1400</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>8474.2100</v>
+        <v>88681.1300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>44007.0900</v>
+        <v>93652.0300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>11955.1600</v>
+        <v>122171.1100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>10292.8100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>23589.6800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2">
-        <v>33907.8400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2182.4200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>290.0000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>28376.0700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>10014.8800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>800.0000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>180.0000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
-        <v>160.0000</v>
+        <v>11482.0400</v>
       </c>
     </row>
   </sheetData>
